--- a/output.xlsx
+++ b/output.xlsx
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
